--- a/public/SheetCuttingBusinessTemplate.xlsx
+++ b/public/SheetCuttingBusinessTemplate.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet Cutting Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Customers" sheetId="2" r:id="rId2"/>
+    <sheet name="Factories" sheetId="3" r:id="rId3"/>
+    <sheet name="Purchases" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -397,279 +400,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Material</v>
+        <v>Order Ref</v>
       </c>
       <c r="B1" t="str">
         <v>Date</v>
       </c>
       <c r="C1" t="str">
+        <v>Customer ID</v>
+      </c>
+      <c r="D1" t="str">
         <v>Customer</v>
       </c>
-      <c r="D1" t="str">
-        <v>Order Ref</v>
-      </c>
       <c r="E1" t="str">
+        <v>Sheet ID</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Purchase ID</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Factory ID</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Factory Name</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Batch Ref</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Material</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Piece Size (mm)</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Qty</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Area per Piece (m²)</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Total Area Used (m²)</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Unit Cost</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Unit Sale Price</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Total Cost</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Total Sale</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Profit</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Leftover Area (m²)</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Offcut Used? (Y/N)</v>
+      </c>
+      <c r="V1" t="str">
         <v>Sheet Used (Y/N)</v>
       </c>
-      <c r="F1" t="str">
-        <v>Piece Size (mm)</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Area per Piece (m²)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Total Area Used (m²)</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Unit Cost</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Unit Sale Price</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Total Cost</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Total Sale</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Profit</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Leftover Area (m²)</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Offcut Used? (Y/N)</v>
-      </c>
-      <c r="Q1" t="str">
+      <c r="W1" t="str">
         <v>Notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Plastic</v>
+        <v>ORD001</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-10-01</v>
+        <v>2024-01-16</v>
       </c>
       <c r="C2" t="str">
-        <v>John Doe</v>
+        <v>CUST001</v>
       </c>
       <c r="D2" t="str">
-        <v>ORD001</v>
+        <v>ABC Manufacturing</v>
       </c>
       <c r="E2" t="str">
+        <v>SHT001</v>
+      </c>
+      <c r="F2" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="G2" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="I2" t="str">
+        <v>BATCH-2024-001</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Stainless Steel</v>
+      </c>
+      <c r="K2" t="str">
+        <v>600x400</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0.24</v>
+      </c>
+      <c r="N2">
+        <v>2.4</v>
+      </c>
+      <c r="O2">
+        <v>85.5</v>
+      </c>
+      <c r="P2">
+        <v>125</v>
+      </c>
+      <c r="Q2">
+        <v>855</v>
+      </c>
+      <c r="R2">
+        <v>1250</v>
+      </c>
+      <c r="S2">
+        <v>395</v>
+      </c>
+      <c r="T2">
+        <v>0.58</v>
+      </c>
+      <c r="U2" t="str">
+        <v>N</v>
+      </c>
+      <c r="V2" t="str">
         <v>Y</v>
       </c>
-      <c r="F2" t="str">
-        <v>1200x2400</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>2.88</v>
-      </c>
-      <c r="I2">
-        <v>28.8</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>150</v>
-      </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-      <c r="M2">
-        <v>1500</v>
-      </c>
-      <c r="N2">
-        <v>500</v>
-      </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2" t="str">
-        <v>N</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>First order</v>
+      <c r="W2" t="str">
+        <v>Custom cut for ABC Manufacturing</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hylam</v>
+        <v>ORD002</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-10-02</v>
+        <v>2024-01-22</v>
       </c>
       <c r="C3" t="str">
-        <v>Jane Smith</v>
+        <v>CUST002</v>
       </c>
       <c r="D3" t="str">
-        <v>ORD002</v>
+        <v>XYZ Construction</v>
       </c>
       <c r="E3" t="str">
-        <v>N</v>
+        <v>SHT002</v>
       </c>
       <c r="F3" t="str">
-        <v>1000x2000</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>80</v>
-      </c>
-      <c r="K3">
-        <v>120</v>
+        <v>PUR002</v>
+      </c>
+      <c r="G3" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Aluminum Solutions</v>
+      </c>
+      <c r="I3" t="str">
+        <v>BATCH-2024-002</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Aluminum 6061</v>
+      </c>
+      <c r="K3" t="str">
+        <v>800x600</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>600</v>
+        <v>0.48</v>
       </c>
       <c r="N3">
-        <v>200</v>
+        <v>7.2</v>
       </c>
       <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3" t="str">
+        <v>95</v>
+      </c>
+      <c r="P3">
+        <v>140</v>
+      </c>
+      <c r="Q3">
+        <v>1425</v>
+      </c>
+      <c r="R3">
+        <v>2100</v>
+      </c>
+      <c r="S3">
+        <v>675</v>
+      </c>
+      <c r="T3">
+        <v>1.25</v>
+      </c>
+      <c r="U3" t="str">
         <v>Y</v>
       </c>
-      <c r="Q3" t="str">
-        <v>Used offcut</v>
+      <c r="V3" t="str">
+        <v>Y</v>
+      </c>
+      <c r="W3" t="str">
+        <v>Reused leftover for smaller pieces</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aluminium</v>
+        <v>ORD003</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-10-03</v>
+        <v>2024-02-05</v>
       </c>
       <c r="C4" t="str">
-        <v>Acme Corp</v>
+        <v>CUST003</v>
       </c>
       <c r="D4" t="str">
-        <v>ORD003</v>
+        <v>Tech Solutions Inc</v>
       </c>
       <c r="E4" t="str">
+        <v>SHT003</v>
+      </c>
+      <c r="F4" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="G4" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="I4" t="str">
+        <v>BATCH-2024-003</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Mild Steel</v>
+      </c>
+      <c r="K4" t="str">
+        <v>1000x800</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>6.4</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="P4">
+        <v>165</v>
+      </c>
+      <c r="Q4">
+        <v>960</v>
+      </c>
+      <c r="R4">
+        <v>1320</v>
+      </c>
+      <c r="S4">
+        <v>360</v>
+      </c>
+      <c r="T4">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="str">
+        <v>N</v>
+      </c>
+      <c r="V4" t="str">
         <v>Y</v>
       </c>
-      <c r="F4" t="str">
-        <v>1500x3000</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>4.5</v>
-      </c>
-      <c r="I4">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4">
-        <v>270</v>
-      </c>
-      <c r="L4">
-        <v>1200</v>
-      </c>
-      <c r="M4">
-        <v>1620</v>
-      </c>
-      <c r="N4">
-        <v>420</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="str">
-        <v>N</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>Big order</v>
+      <c r="W4" t="str">
+        <v>High precision cutting required</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Plywood</v>
+        <v>ORD004</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-10-04</v>
+        <v>2024-02-10</v>
       </c>
       <c r="C5" t="str">
-        <v>Beta Ltd</v>
+        <v>CUST001</v>
       </c>
       <c r="D5" t="str">
-        <v>ORD004</v>
+        <v>ABC Manufacturing</v>
       </c>
       <c r="E5" t="str">
+        <v>SHT001</v>
+      </c>
+      <c r="F5" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="G5" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="I5" t="str">
+        <v>BATCH-2024-001</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Stainless Steel</v>
+      </c>
+      <c r="K5" t="str">
+        <v>500x300</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>0.15</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>85.5</v>
+      </c>
+      <c r="P5">
+        <v>120</v>
+      </c>
+      <c r="Q5">
+        <v>1710</v>
+      </c>
+      <c r="R5">
+        <v>2400</v>
+      </c>
+      <c r="S5">
+        <v>690</v>
+      </c>
+      <c r="T5">
+        <v>0.98</v>
+      </c>
+      <c r="U5" t="str">
+        <v>N</v>
+      </c>
+      <c r="V5" t="str">
         <v>Y</v>
       </c>
-      <c r="F5" t="str">
-        <v>1220x2440</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>2.9768</v>
-      </c>
-      <c r="I5">
-        <v>23.8144</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>480</v>
-      </c>
-      <c r="M5">
-        <v>800</v>
-      </c>
-      <c r="N5">
-        <v>320</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="str">
-        <v>N</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>Standard cut</v>
+      <c r="W5" t="str">
+        <v>Standard order</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W5"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="E1" t="str">
+        <v>address</v>
+      </c>
+      <c r="F1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>CUST001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ABC Manufacturing</v>
+      </c>
+      <c r="C2" t="str">
+        <v>contact@abcmfg.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>+1-555-0101</v>
+      </c>
+      <c r="E2" t="str">
+        <v>123 Industrial Ave, New York, NY</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Regular customer, monthly orders</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CUST002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>XYZ Construction</v>
+      </c>
+      <c r="C3" t="str">
+        <v>info@xyzconstruction.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>+1-555-0102</v>
+      </c>
+      <c r="E3" t="str">
+        <v>456 Builder St, Los Angeles, CA</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Large volume orders</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CUST003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Tech Solutions Inc</v>
+      </c>
+      <c r="C4" t="str">
+        <v>procurement@techsolutions.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>+1-555-0103</v>
+      </c>
+      <c r="E4" t="str">
+        <v>789 Tech Park, San Francisco, CA</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Specialty materials required</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>location</v>
+      </c>
+      <c r="D1" t="str">
+        <v>contact</v>
+      </c>
+      <c r="E1" t="str">
+        <v>email</v>
+      </c>
+      <c r="F1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="G1" t="str">
+        <v>materials</v>
+      </c>
+      <c r="H1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Pittsburgh, PA</v>
+      </c>
+      <c r="D2" t="str">
+        <v>John Smith</v>
+      </c>
+      <c r="E2" t="str">
+        <v>john@steelworks.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>+1-555-0201</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Stainless Steel, Mild Steel</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Primary steel supplier</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Aluminum Solutions</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Detroit, MI</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Jane Doe</v>
+      </c>
+      <c r="E3" t="str">
+        <v>jane@alumsolutions.com</v>
+      </c>
+      <c r="F3" t="str">
+        <v>+1-555-0202</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Aluminum 6061, Aluminum 5052</v>
+      </c>
+      <c r="H3" t="str">
+        <v>High quality aluminum</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Copper Industries</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Phoenix, AZ</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Bob Johnson</v>
+      </c>
+      <c r="E4" t="str">
+        <v>bob@copperind.com</v>
+      </c>
+      <c r="F4" t="str">
+        <v>+1-555-0203</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Copper, Brass</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Specialized copper products</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>factoryId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>factoryName</v>
+      </c>
+      <c r="E1" t="str">
+        <v>material</v>
+      </c>
+      <c r="F1" t="str">
+        <v>size</v>
+      </c>
+      <c r="G1" t="str">
+        <v>thickness</v>
+      </c>
+      <c r="H1" t="str">
+        <v>qty</v>
+      </c>
+      <c r="I1" t="str">
+        <v>unitCost</v>
+      </c>
+      <c r="J1" t="str">
+        <v>totalCost</v>
+      </c>
+      <c r="K1" t="str">
+        <v>batchRef</v>
+      </c>
+      <c r="L1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="C2" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Stainless Steel</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3mm</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>85.5</v>
+      </c>
+      <c r="J2">
+        <v>4275</v>
+      </c>
+      <c r="K2" t="str">
+        <v>BATCH-2024-001</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Premium grade stainless steel</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="C3" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Aluminum Solutions</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Aluminum 6061</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G3" t="str">
+        <v>4mm</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>95</v>
+      </c>
+      <c r="J3">
+        <v>2850</v>
+      </c>
+      <c r="K3" t="str">
+        <v>BATCH-2024-002</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Aircraft grade aluminum</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="C4" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Steel Works Ltd</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Mild Steel</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3000x1500</v>
+      </c>
+      <c r="G4" t="str">
+        <v>5mm</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>4800</v>
+      </c>
+      <c r="K4" t="str">
+        <v>BATCH-2024-003</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Heavy duty mild steel</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/SheetCuttingBusinessTemplate.xlsx
+++ b/public/SheetCuttingBusinessTemplate.xlsx
@@ -7,6 +7,8 @@
     <sheet name="Customers" sheetId="2" r:id="rId2"/>
     <sheet name="Factories" sheetId="3" r:id="rId3"/>
     <sheet name="Purchases" sheetId="4" r:id="rId4"/>
+    <sheet name="Categories" sheetId="5" r:id="rId5"/>
+    <sheet name="Products" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -402,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -771,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -865,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -983,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -1143,4 +1145,364 @@
     <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>CAT001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Decorative Laminates</v>
+      </c>
+      <c r="C2" t="str">
+        <v>High-quality decorative laminates for furniture and interiors</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CAT002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Industrial Laminates</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Durable laminates for industrial applications</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CAT003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Compact Laminates</v>
+      </c>
+      <c r="C4" t="str">
+        <v>High-pressure compact laminates for heavy-duty use</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>CAT004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Wood Finish Laminates</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Natural wood-finish laminate sheets</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>CAT005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Solid Color Laminates</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Solid color laminate sheets for modern designs</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>categoryId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>categoryName</v>
+      </c>
+      <c r="E1" t="str">
+        <v>length</v>
+      </c>
+      <c r="F1" t="str">
+        <v>width</v>
+      </c>
+      <c r="G1" t="str">
+        <v>thickness</v>
+      </c>
+      <c r="H1" t="str">
+        <v>area</v>
+      </c>
+      <c r="I1" t="str">
+        <v>unitCost</v>
+      </c>
+      <c r="J1" t="str">
+        <v>colour</v>
+      </c>
+      <c r="K1" t="str">
+        <v>weight</v>
+      </c>
+      <c r="L1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PROD001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Premium Oak Laminate</v>
+      </c>
+      <c r="C2" t="str">
+        <v>CAT004</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Wood Finish Laminates</v>
+      </c>
+      <c r="E2">
+        <v>2440</v>
+      </c>
+      <c r="F2">
+        <v>1220</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2976800</v>
+      </c>
+      <c r="I2">
+        <v>0.0025</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Oak Brown</v>
+      </c>
+      <c r="K2">
+        <v>15000</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Popular wood finish, suitable for furniture</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PROD002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Classic Walnut Laminate</v>
+      </c>
+      <c r="C3" t="str">
+        <v>CAT004</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Wood Finish Laminates</v>
+      </c>
+      <c r="E3">
+        <v>2440</v>
+      </c>
+      <c r="F3">
+        <v>1220</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>2976800</v>
+      </c>
+      <c r="I3">
+        <v>0.0028</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Dark Walnut</v>
+      </c>
+      <c r="K3">
+        <v>14000</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Premium walnut finish</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PROD003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Glossy White Laminate</v>
+      </c>
+      <c r="C4" t="str">
+        <v>CAT005</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Solid Color Laminates</v>
+      </c>
+      <c r="E4">
+        <v>2440</v>
+      </c>
+      <c r="F4">
+        <v>1220</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2976800</v>
+      </c>
+      <c r="I4">
+        <v>0.002</v>
+      </c>
+      <c r="J4" t="str">
+        <v>White</v>
+      </c>
+      <c r="K4">
+        <v>15000</v>
+      </c>
+      <c r="L4" t="str">
+        <v>High-gloss white finish</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PROD004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Matte Black Laminate</v>
+      </c>
+      <c r="C5" t="str">
+        <v>CAT005</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Solid Color Laminates</v>
+      </c>
+      <c r="E5">
+        <v>2440</v>
+      </c>
+      <c r="F5">
+        <v>1220</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2976800</v>
+      </c>
+      <c r="I5">
+        <v>0.0022</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K5">
+        <v>15200</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Matte black finish for modern designs</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PROD005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Industrial Grey Compact</v>
+      </c>
+      <c r="C6" t="str">
+        <v>CAT003</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Compact Laminates</v>
+      </c>
+      <c r="E6">
+        <v>3050</v>
+      </c>
+      <c r="F6">
+        <v>1300</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>3965000</v>
+      </c>
+      <c r="I6">
+        <v>0.0045</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="K6">
+        <v>48000</v>
+      </c>
+      <c r="L6" t="str">
+        <v>High-pressure compact laminate for heavy-duty applications</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PROD006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Marble Effect Laminate</v>
+      </c>
+      <c r="C7" t="str">
+        <v>CAT001</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Decorative Laminates</v>
+      </c>
+      <c r="E7">
+        <v>2440</v>
+      </c>
+      <c r="F7">
+        <v>1220</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2976800</v>
+      </c>
+      <c r="I7">
+        <v>0.0032</v>
+      </c>
+      <c r="J7" t="str">
+        <v>White Marble</v>
+      </c>
+      <c r="K7">
+        <v>15000</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Realistic marble pattern for premium interiors</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/public/SheetCuttingBusinessTemplate.xlsx
+++ b/public/SheetCuttingBusinessTemplate.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Purchases" sheetId="4" r:id="rId4"/>
     <sheet name="Categories" sheetId="5" r:id="rId5"/>
     <sheet name="Products" sheetId="6" r:id="rId6"/>
+    <sheet name="Stock" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -402,376 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Order Ref</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Customer ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Customer</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Sheet ID</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Purchase ID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Factory ID</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Factory Name</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Batch Ref</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Material</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Piece Size (mm)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Area per Piece (m²)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Total Area Used (m²)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Unit Cost</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Unit Sale Price</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Total Cost</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Total Sale</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Profit</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Leftover Area (m²)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Offcut Used? (Y/N)</v>
-      </c>
-      <c r="V1" t="str">
-        <v>Sheet Used (Y/N)</v>
-      </c>
-      <c r="W1" t="str">
-        <v>Notes</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ORD001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2024-01-16</v>
-      </c>
-      <c r="C2" t="str">
-        <v>CUST001</v>
-      </c>
-      <c r="D2" t="str">
-        <v>ABC Manufacturing</v>
-      </c>
-      <c r="E2" t="str">
-        <v>SHT001</v>
-      </c>
-      <c r="F2" t="str">
-        <v>PUR001</v>
-      </c>
-      <c r="G2" t="str">
-        <v>FAC001</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Steel Works Ltd</v>
-      </c>
-      <c r="I2" t="str">
-        <v>BATCH-2024-001</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Stainless Steel</v>
-      </c>
-      <c r="K2" t="str">
-        <v>600x400</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>0.24</v>
-      </c>
-      <c r="N2">
-        <v>2.4</v>
-      </c>
-      <c r="O2">
-        <v>85.5</v>
-      </c>
-      <c r="P2">
-        <v>125</v>
-      </c>
-      <c r="Q2">
-        <v>855</v>
-      </c>
-      <c r="R2">
-        <v>1250</v>
-      </c>
-      <c r="S2">
-        <v>395</v>
-      </c>
-      <c r="T2">
-        <v>0.58</v>
-      </c>
-      <c r="U2" t="str">
-        <v>N</v>
-      </c>
-      <c r="V2" t="str">
-        <v>Y</v>
-      </c>
-      <c r="W2" t="str">
-        <v>Custom cut for ABC Manufacturing</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ORD002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2024-01-22</v>
-      </c>
-      <c r="C3" t="str">
-        <v>CUST002</v>
-      </c>
-      <c r="D3" t="str">
-        <v>XYZ Construction</v>
-      </c>
-      <c r="E3" t="str">
-        <v>SHT002</v>
-      </c>
-      <c r="F3" t="str">
-        <v>PUR002</v>
-      </c>
-      <c r="G3" t="str">
-        <v>FAC002</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Aluminum Solutions</v>
-      </c>
-      <c r="I3" t="str">
-        <v>BATCH-2024-002</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Aluminum 6061</v>
-      </c>
-      <c r="K3" t="str">
-        <v>800x600</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>0.48</v>
-      </c>
-      <c r="N3">
-        <v>7.2</v>
-      </c>
-      <c r="O3">
-        <v>95</v>
-      </c>
-      <c r="P3">
-        <v>140</v>
-      </c>
-      <c r="Q3">
-        <v>1425</v>
-      </c>
-      <c r="R3">
-        <v>2100</v>
-      </c>
-      <c r="S3">
-        <v>675</v>
-      </c>
-      <c r="T3">
-        <v>1.25</v>
-      </c>
-      <c r="U3" t="str">
-        <v>Y</v>
-      </c>
-      <c r="V3" t="str">
-        <v>Y</v>
-      </c>
-      <c r="W3" t="str">
-        <v>Reused leftover for smaller pieces</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ORD003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2024-02-05</v>
-      </c>
-      <c r="C4" t="str">
-        <v>CUST003</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Tech Solutions Inc</v>
-      </c>
-      <c r="E4" t="str">
-        <v>SHT003</v>
-      </c>
-      <c r="F4" t="str">
-        <v>PUR003</v>
-      </c>
-      <c r="G4" t="str">
-        <v>FAC001</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Steel Works Ltd</v>
-      </c>
-      <c r="I4" t="str">
-        <v>BATCH-2024-003</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Mild Steel</v>
-      </c>
-      <c r="K4" t="str">
-        <v>1000x800</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>0.8</v>
-      </c>
-      <c r="N4">
-        <v>6.4</v>
-      </c>
-      <c r="O4">
-        <v>120</v>
-      </c>
-      <c r="P4">
-        <v>165</v>
-      </c>
-      <c r="Q4">
-        <v>960</v>
-      </c>
-      <c r="R4">
-        <v>1320</v>
-      </c>
-      <c r="S4">
-        <v>360</v>
-      </c>
-      <c r="T4">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="str">
-        <v>N</v>
-      </c>
-      <c r="V4" t="str">
-        <v>Y</v>
-      </c>
-      <c r="W4" t="str">
-        <v>High precision cutting required</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ORD004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2024-02-10</v>
-      </c>
-      <c r="C5" t="str">
-        <v>CUST001</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ABC Manufacturing</v>
-      </c>
-      <c r="E5" t="str">
-        <v>SHT001</v>
-      </c>
-      <c r="F5" t="str">
-        <v>PUR001</v>
-      </c>
-      <c r="G5" t="str">
-        <v>FAC001</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Steel Works Ltd</v>
-      </c>
-      <c r="I5" t="str">
-        <v>BATCH-2024-001</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Stainless Steel</v>
-      </c>
-      <c r="K5" t="str">
-        <v>500x300</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>0.15</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>85.5</v>
-      </c>
-      <c r="P5">
-        <v>120</v>
-      </c>
-      <c r="Q5">
-        <v>1710</v>
-      </c>
-      <c r="R5">
-        <v>2400</v>
-      </c>
-      <c r="S5">
-        <v>690</v>
-      </c>
-      <c r="T5">
-        <v>0.98</v>
-      </c>
-      <c r="U5" t="str">
-        <v>N</v>
-      </c>
-      <c r="V5" t="str">
-        <v>Y</v>
-      </c>
-      <c r="W5" t="str">
-        <v>Standard order</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W5"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -781,91 +413,293 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>orderRef</v>
       </c>
       <c r="C1" t="str">
-        <v>email</v>
+        <v>date</v>
       </c>
       <c r="D1" t="str">
-        <v>phone</v>
+        <v>customerId</v>
       </c>
       <c r="E1" t="str">
-        <v>address</v>
+        <v>customerName</v>
       </c>
       <c r="F1" t="str">
+        <v>productId</v>
+      </c>
+      <c r="G1" t="str">
+        <v>productName</v>
+      </c>
+      <c r="H1" t="str">
+        <v>pieceSize</v>
+      </c>
+      <c r="I1" t="str">
+        <v>qty</v>
+      </c>
+      <c r="J1" t="str">
+        <v>unitCost</v>
+      </c>
+      <c r="K1" t="str">
+        <v>unitSalePrice</v>
+      </c>
+      <c r="L1" t="str">
+        <v>totalCost</v>
+      </c>
+      <c r="M1" t="str">
+        <v>totalSale</v>
+      </c>
+      <c r="N1" t="str">
+        <v>profit</v>
+      </c>
+      <c r="O1" t="str">
         <v>notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>ORD001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ORD001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="D2" t="str">
         <v>CUST001</v>
       </c>
-      <c r="B2" t="str">
-        <v>ABC Manufacturing</v>
-      </c>
-      <c r="C2" t="str">
-        <v>contact@abcmfg.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>+1-555-0101</v>
-      </c>
       <c r="E2" t="str">
-        <v>123 Industrial Ave, New York, NY</v>
+        <v>ABC Furniture Works</v>
       </c>
       <c r="F2" t="str">
-        <v>Regular customer, monthly orders</v>
+        <v>PROD009</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1200x600</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>8339.84</v>
+      </c>
+      <c r="K2">
+        <v>11000</v>
+      </c>
+      <c r="L2">
+        <v>83398.4</v>
+      </c>
+      <c r="M2">
+        <v>110000</v>
+      </c>
+      <c r="N2">
+        <v>26601.6</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Cabinet doors for premium furniture</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>ORD002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ORD002</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="D3" t="str">
         <v>CUST002</v>
       </c>
-      <c r="B3" t="str">
-        <v>XYZ Construction</v>
-      </c>
-      <c r="C3" t="str">
-        <v>info@xyzconstruction.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>+1-555-0102</v>
-      </c>
       <c r="E3" t="str">
-        <v>456 Builder St, Los Angeles, CA</v>
+        <v>XYZ Interior Designers</v>
       </c>
       <c r="F3" t="str">
-        <v>Large volume orders</v>
+        <v>PROD007</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1220x800</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>4465.2</v>
+      </c>
+      <c r="K3">
+        <v>6000</v>
+      </c>
+      <c r="L3">
+        <v>66978</v>
+      </c>
+      <c r="M3">
+        <v>90000</v>
+      </c>
+      <c r="N3">
+        <v>23022</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Plywood for interior partitions</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>ORD003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ORD003</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="D4" t="str">
         <v>CUST003</v>
       </c>
-      <c r="B4" t="str">
-        <v>Tech Solutions Inc</v>
-      </c>
-      <c r="C4" t="str">
-        <v>procurement@techsolutions.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>+1-555-0103</v>
-      </c>
       <c r="E4" t="str">
-        <v>789 Tech Park, San Francisco, CA</v>
+        <v>Modern Kitchen Solutions</v>
       </c>
       <c r="F4" t="str">
-        <v>Specialty materials required</v>
+        <v>PROD011</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="H4" t="str">
+        <v>900x600</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>5359.04</v>
+      </c>
+      <c r="K4">
+        <v>7200</v>
+      </c>
+      <c r="L4">
+        <v>107180.8</v>
+      </c>
+      <c r="M4">
+        <v>144000</v>
+      </c>
+      <c r="N4">
+        <v>36819.2</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Kitchen counter backsplash</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ORD004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ORD004</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="D5" t="str">
+        <v>CUST004</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Industrial Fabricators Ltd</v>
+      </c>
+      <c r="F5" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="H5" t="str">
+        <v>1000x500</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>10418.8</v>
+      </c>
+      <c r="K5">
+        <v>14000</v>
+      </c>
+      <c r="L5">
+        <v>125025.6</v>
+      </c>
+      <c r="M5">
+        <v>168000</v>
+      </c>
+      <c r="N5">
+        <v>42974.4</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Industrial panels for machinery</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ORD005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ORD005</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2024-02-20</v>
+      </c>
+      <c r="D6" t="str">
+        <v>CUST004</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Industrial Fabricators Ltd</v>
+      </c>
+      <c r="F6" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="H6" t="str">
+        <v>800x500</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>11000</v>
+      </c>
+      <c r="K6">
+        <v>15000</v>
+      </c>
+      <c r="L6">
+        <v>88000</v>
+      </c>
+      <c r="M6">
+        <v>120000</v>
+      </c>
+      <c r="N6">
+        <v>32000</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Chemical resistant lining</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -878,112 +712,108 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>location</v>
+        <v>email</v>
       </c>
       <c r="D1" t="str">
-        <v>contact</v>
+        <v>phone</v>
       </c>
       <c r="E1" t="str">
-        <v>email</v>
+        <v>address</v>
       </c>
       <c r="F1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="G1" t="str">
-        <v>materials</v>
-      </c>
-      <c r="H1" t="str">
         <v>notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>FAC001</v>
+        <v>CUST001</v>
       </c>
       <c r="B2" t="str">
-        <v>Steel Works Ltd</v>
+        <v>ABC Furniture Works</v>
       </c>
       <c r="C2" t="str">
-        <v>Pittsburgh, PA</v>
+        <v>contact@abcfurniture.com</v>
       </c>
       <c r="D2" t="str">
-        <v>John Smith</v>
+        <v>+91-98765-43210</v>
       </c>
       <c r="E2" t="str">
-        <v>john@steelworks.com</v>
+        <v>123 Industrial Area, Mumbai, Maharashtra</v>
       </c>
       <c r="F2" t="str">
-        <v>+1-555-0201</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Stainless Steel, Mild Steel</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Primary steel supplier</v>
+        <v>Regular customer, prefers hylam and plywood</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>FAC002</v>
+        <v>CUST002</v>
       </c>
       <c r="B3" t="str">
-        <v>Aluminum Solutions</v>
+        <v>XYZ Interior Designers</v>
       </c>
       <c r="C3" t="str">
-        <v>Detroit, MI</v>
+        <v>info@xyzinteriors.com</v>
       </c>
       <c r="D3" t="str">
-        <v>Jane Doe</v>
+        <v>+91-98765-43211</v>
       </c>
       <c r="E3" t="str">
-        <v>jane@alumsolutions.com</v>
+        <v>456 Design Plaza, Bangalore, Karnataka</v>
       </c>
       <c r="F3" t="str">
-        <v>+1-555-0202</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Aluminum 6061, Aluminum 5052</v>
-      </c>
-      <c r="H3" t="str">
-        <v>High quality aluminum</v>
+        <v>Premium client, orders decorative laminates</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>FAC003</v>
+        <v>CUST003</v>
       </c>
       <c r="B4" t="str">
-        <v>Copper Industries</v>
+        <v>Modern Kitchen Solutions</v>
       </c>
       <c r="C4" t="str">
-        <v>Phoenix, AZ</v>
+        <v>sales@modernkitchen.com</v>
       </c>
       <c r="D4" t="str">
-        <v>Bob Johnson</v>
+        <v>+91-98765-43212</v>
       </c>
       <c r="E4" t="str">
-        <v>bob@copperind.com</v>
+        <v>789 Kitchen Hub, Delhi</v>
       </c>
       <c r="F4" t="str">
-        <v>+1-555-0203</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Copper, Brass</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Specialized copper products</v>
+        <v>Bulk orders for mica sheets and laminates</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>CUST004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Industrial Fabricators Ltd</v>
+      </c>
+      <c r="C5" t="str">
+        <v>procurement@indfab.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>+91-98765-43213</v>
+      </c>
+      <c r="E5" t="str">
+        <v>321 Factory Road, Chennai, Tamil Nadu</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Requires aluminium and teflon sheets</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -993,163 +823,167 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>date</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>factoryId</v>
+        <v>location</v>
       </c>
       <c r="D1" t="str">
-        <v>factoryName</v>
+        <v>contact</v>
       </c>
       <c r="E1" t="str">
-        <v>material</v>
+        <v>email</v>
       </c>
       <c r="F1" t="str">
-        <v>size</v>
+        <v>phone</v>
       </c>
       <c r="G1" t="str">
-        <v>thickness</v>
+        <v>materials</v>
       </c>
       <c r="H1" t="str">
-        <v>qty</v>
-      </c>
-      <c r="I1" t="str">
-        <v>unitCost</v>
-      </c>
-      <c r="J1" t="str">
-        <v>totalCost</v>
-      </c>
-      <c r="K1" t="str">
-        <v>batchRef</v>
-      </c>
-      <c r="L1" t="str">
         <v>notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PUR001</v>
+        <v>FAC001</v>
       </c>
       <c r="B2" t="str">
-        <v>2024-01-15</v>
+        <v>Premium Laminates India</v>
       </c>
       <c r="C2" t="str">
-        <v>FAC001</v>
+        <v>Mumbai, Maharashtra</v>
       </c>
       <c r="D2" t="str">
-        <v>Steel Works Ltd</v>
+        <v>Rajesh Kumar</v>
       </c>
       <c r="E2" t="str">
-        <v>Stainless Steel</v>
+        <v>rajesh@premiumlam.com</v>
       </c>
       <c r="F2" t="str">
-        <v>2440x1220</v>
+        <v>+91-22-2345-6789</v>
       </c>
       <c r="G2" t="str">
-        <v>3mm</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>85.5</v>
-      </c>
-      <c r="J2">
-        <v>4275</v>
-      </c>
-      <c r="K2" t="str">
-        <v>BATCH-2024-001</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Premium grade stainless steel</v>
+        <v>Decorative Laminates, Wood Finish Laminates, Hylam Sheets</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Leading supplier of decorative laminates</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PUR002</v>
+        <v>FAC002</v>
       </c>
       <c r="B3" t="str">
-        <v>2024-01-20</v>
+        <v>Plywood Industries</v>
       </c>
       <c r="C3" t="str">
-        <v>FAC002</v>
+        <v>Yamunanagar, Haryana</v>
       </c>
       <c r="D3" t="str">
-        <v>Aluminum Solutions</v>
+        <v>Suresh Sharma</v>
       </c>
       <c r="E3" t="str">
-        <v>Aluminum 6061</v>
+        <v>suresh@plywoodind.com</v>
       </c>
       <c r="F3" t="str">
-        <v>2440x1220</v>
+        <v>+91-17-3245-6789</v>
       </c>
       <c r="G3" t="str">
-        <v>4mm</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>95</v>
-      </c>
-      <c r="J3">
-        <v>2850</v>
-      </c>
-      <c r="K3" t="str">
-        <v>BATCH-2024-002</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Aircraft grade aluminum</v>
+        <v>Commercial Plywood, Marine Plywood</v>
+      </c>
+      <c r="H3" t="str">
+        <v>BWR and BWP grade plywood manufacturer</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PUR003</v>
+        <v>FAC003</v>
       </c>
       <c r="B4" t="str">
-        <v>2024-02-01</v>
+        <v>Mica Tech Solutions</v>
       </c>
       <c r="C4" t="str">
-        <v>FAC001</v>
+        <v>Ahmedabad, Gujarat</v>
       </c>
       <c r="D4" t="str">
-        <v>Steel Works Ltd</v>
+        <v>Priya Patel</v>
       </c>
       <c r="E4" t="str">
-        <v>Mild Steel</v>
+        <v>priya@micatech.com</v>
       </c>
       <c r="F4" t="str">
-        <v>3000x1500</v>
+        <v>+91-79-2345-6789</v>
       </c>
       <c r="G4" t="str">
-        <v>5mm</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>120</v>
-      </c>
-      <c r="J4">
-        <v>4800</v>
-      </c>
-      <c r="K4" t="str">
-        <v>BATCH-2024-003</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Heavy duty mild steel</v>
+        <v>Mica Sheets, Heat-resistant Laminates</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Specialized in mica and heat-resistant materials</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Metro Aluminium Works</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Pune, Maharashtra</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Amit Singh</v>
+      </c>
+      <c r="E5" t="str">
+        <v>amit@metroalu.com</v>
+      </c>
+      <c r="F5" t="str">
+        <v>+91-20-2345-6789</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Aluminium Sheets, Metal Sheets</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Industrial grade aluminium supplier</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Teflon Industries India</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Coimbatore, Tamil Nadu</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Deepak Menon</v>
+      </c>
+      <c r="E6" t="str">
+        <v>deepak@teflonind.com</v>
+      </c>
+      <c r="F6" t="str">
+        <v>+91-42-2345-6789</v>
+      </c>
+      <c r="G6" t="str">
+        <v>PTFE Teflon Sheets, Industrial Polymers</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Specialized teflon and polymer products</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1159,77 +993,339 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>date</v>
       </c>
       <c r="C1" t="str">
-        <v>description</v>
+        <v>factoryId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>factoryName</v>
+      </c>
+      <c r="E1" t="str">
+        <v>productId</v>
+      </c>
+      <c r="F1" t="str">
+        <v>productName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>size</v>
+      </c>
+      <c r="H1" t="str">
+        <v>thickness</v>
+      </c>
+      <c r="I1" t="str">
+        <v>qty</v>
+      </c>
+      <c r="J1" t="str">
+        <v>unitCost</v>
+      </c>
+      <c r="K1" t="str">
+        <v>totalCost</v>
+      </c>
+      <c r="L1" t="str">
+        <v>batchRef</v>
+      </c>
+      <c r="M1" t="str">
+        <v>notes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>CAT001</v>
+        <v>PUR001</v>
       </c>
       <c r="B2" t="str">
-        <v>Decorative Laminates</v>
+        <v>2024-01-15</v>
       </c>
       <c r="C2" t="str">
-        <v>High-quality decorative laminates for furniture and interiors</v>
+        <v>FAC001</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Premium Laminates India</v>
+      </c>
+      <c r="E2" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>8339.84</v>
+      </c>
+      <c r="K2">
+        <v>416992</v>
+      </c>
+      <c r="L2" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Premium hylam sheets for furniture project</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>CAT002</v>
+        <v>PUR002</v>
       </c>
       <c r="B3" t="str">
-        <v>Industrial Laminates</v>
+        <v>2024-01-20</v>
       </c>
       <c r="C3" t="str">
-        <v>Durable laminates for industrial applications</v>
+        <v>FAC002</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Plywood Industries</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H3" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>4465.2</v>
+      </c>
+      <c r="K3">
+        <v>133956</v>
+      </c>
+      <c r="L3" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="M3" t="str">
+        <v>BWR grade commercial plywood</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>CAT003</v>
+        <v>PUR003</v>
       </c>
       <c r="B4" t="str">
-        <v>Compact Laminates</v>
+        <v>2024-01-25</v>
       </c>
       <c r="C4" t="str">
-        <v>High-pressure compact laminates for heavy-duty use</v>
+        <v>FAC003</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Mica Tech Solutions</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H4" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>5359.04</v>
+      </c>
+      <c r="K4">
+        <v>214361.6</v>
+      </c>
+      <c r="L4" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Heat-resistant mica for kitchen applications</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>CAT004</v>
+        <v>PUR004</v>
       </c>
       <c r="B5" t="str">
-        <v>Wood Finish Laminates</v>
+        <v>2024-02-01</v>
       </c>
       <c r="C5" t="str">
-        <v>Natural wood-finish laminate sheets</v>
+        <v>FAC004</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Metro Aluminium Works</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H5" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>10418.8</v>
+      </c>
+      <c r="K5">
+        <v>260470</v>
+      </c>
+      <c r="L5" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="M5" t="str">
+        <v>6061 grade aluminium sheets</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>CAT005</v>
+        <v>PUR005</v>
       </c>
       <c r="B6" t="str">
-        <v>Solid Color Laminates</v>
+        <v>2024-02-05</v>
       </c>
       <c r="C6" t="str">
-        <v>Solid color laminate sheets for modern designs</v>
+        <v>FAC005</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Teflon Industries India</v>
+      </c>
+      <c r="E6" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>11000</v>
+      </c>
+      <c r="K6">
+        <v>220000</v>
+      </c>
+      <c r="L6" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Virgin PTFE teflon sheets</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="C7" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Premium Laminates India</v>
+      </c>
+      <c r="E7" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H7" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>7739.68</v>
+      </c>
+      <c r="K7">
+        <v>270888.8</v>
+      </c>
+      <c r="L7" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Textured hylam with oak finish</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="C8" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Plywood Industries</v>
+      </c>
+      <c r="E8" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="H8" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>6548.96</v>
+      </c>
+      <c r="K8">
+        <v>163724</v>
+      </c>
+      <c r="L8" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="M8" t="str">
+        <v>BWP grade waterproof plywood</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1242,6 +1338,141 @@
         <v>name</v>
       </c>
       <c r="C1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>CAT001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Decorative Laminates</v>
+      </c>
+      <c r="C2" t="str">
+        <v>High-quality decorative laminates for furniture and interiors</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CAT002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Industrial Laminates</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Durable laminates for industrial applications</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CAT003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Compact Laminates</v>
+      </c>
+      <c r="C4" t="str">
+        <v>High-pressure compact laminates for heavy-duty use</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>CAT004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Wood Finish Laminates</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Natural wood-finish laminate sheets</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>CAT005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Solid Color Laminates</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Solid color laminate sheets for modern designs</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>CAT006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Plywood</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Commercial and marine grade plywood sheets</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CAT007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Hylam Sheets</v>
+      </c>
+      <c r="C8" t="str">
+        <v>High-pressure decorative hylam laminate sheets</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>CAT008</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mica Sheets</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Heat-resistant mica laminate sheets</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>CAT009</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Aluminium Sheets</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Industrial aluminium sheets for various applications</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>CAT010</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Teflon Sheets</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Non-stick PTFE teflon sheets for industrial use</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
         <v>categoryId</v>
       </c>
       <c r="D1" t="str">
@@ -1500,9 +1731,788 @@
         <v>Realistic marble pattern for premium interiors</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="C8" t="str">
+        <v>CAT006</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Plywood</v>
+      </c>
+      <c r="E8">
+        <v>2440</v>
+      </c>
+      <c r="F8">
+        <v>1220</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>2976800</v>
+      </c>
+      <c r="I8">
+        <v>0.0015</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Natural Wood</v>
+      </c>
+      <c r="K8">
+        <v>28000</v>
+      </c>
+      <c r="L8" t="str">
+        <v>BWR grade commercial plywood for furniture</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="C9" t="str">
+        <v>CAT006</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Plywood</v>
+      </c>
+      <c r="E9">
+        <v>2440</v>
+      </c>
+      <c r="F9">
+        <v>1220</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>2976800</v>
+      </c>
+      <c r="I9">
+        <v>0.0022</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Natural Wood</v>
+      </c>
+      <c r="K9">
+        <v>22000</v>
+      </c>
+      <c r="L9" t="str">
+        <v>BWP grade marine plywood - waterproof</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="C10" t="str">
+        <v>CAT007</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Hylam Sheets</v>
+      </c>
+      <c r="E10">
+        <v>2440</v>
+      </c>
+      <c r="F10">
+        <v>1220</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2976800</v>
+      </c>
+      <c r="I10">
+        <v>0.0028</v>
+      </c>
+      <c r="J10" t="str">
+        <v>High Gloss White</v>
+      </c>
+      <c r="K10">
+        <v>16000</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Premium hylam sheet with glossy finish</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="C11" t="str">
+        <v>CAT007</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Hylam Sheets</v>
+      </c>
+      <c r="E11">
+        <v>2440</v>
+      </c>
+      <c r="F11">
+        <v>1220</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>2976800</v>
+      </c>
+      <c r="I11">
+        <v>0.0026</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Oak Texture</v>
+      </c>
+      <c r="K11">
+        <v>14500</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Textured hylam with natural wood finish</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CAT008</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Mica Sheets</v>
+      </c>
+      <c r="E12">
+        <v>2440</v>
+      </c>
+      <c r="F12">
+        <v>1220</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2976800</v>
+      </c>
+      <c r="I12">
+        <v>0.0018</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Beige</v>
+      </c>
+      <c r="K12">
+        <v>13000</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Heat-resistant mica laminate for kitchen applications</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PROD012</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Premium Mica Sheet</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CAT008</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Mica Sheets</v>
+      </c>
+      <c r="E13">
+        <v>2440</v>
+      </c>
+      <c r="F13">
+        <v>1220</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13">
+        <v>2976800</v>
+      </c>
+      <c r="I13">
+        <v>0.0024</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Metallic Grey</v>
+      </c>
+      <c r="K13">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Premium grade mica with scratch resistance</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="C14" t="str">
+        <v>CAT009</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Aluminium Sheets</v>
+      </c>
+      <c r="E14">
+        <v>2440</v>
+      </c>
+      <c r="F14">
+        <v>1220</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2976800</v>
+      </c>
+      <c r="I14">
+        <v>0.0035</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Natural Silver</v>
+      </c>
+      <c r="K14">
+        <v>24000</v>
+      </c>
+      <c r="L14" t="str">
+        <v>6061 grade aluminium for industrial use</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PROD014</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Aluminium Sheet 5mm</v>
+      </c>
+      <c r="C15" t="str">
+        <v>CAT009</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Aluminium Sheets</v>
+      </c>
+      <c r="E15">
+        <v>2440</v>
+      </c>
+      <c r="F15">
+        <v>1220</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2976800</v>
+      </c>
+      <c r="I15">
+        <v>0.0048</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Natural Silver</v>
+      </c>
+      <c r="K15">
+        <v>40000</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Heavy-duty aluminium sheet for construction</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="C16" t="str">
+        <v>CAT010</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Teflon Sheets</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2000000</v>
+      </c>
+      <c r="I16">
+        <v>0.0055</v>
+      </c>
+      <c r="J16" t="str">
+        <v>White</v>
+      </c>
+      <c r="K16">
+        <v>8000</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Virgin PTFE teflon sheet for chemical resistance</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>PROD016</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Teflon PTFE Sheet 5mm</v>
+      </c>
+      <c r="C17" t="str">
+        <v>CAT010</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Teflon Sheets</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2000000</v>
+      </c>
+      <c r="I17">
+        <v>0.0082</v>
+      </c>
+      <c r="J17" t="str">
+        <v>White</v>
+      </c>
+      <c r="K17">
+        <v>18000</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Industrial grade teflon for high-temperature applications</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>purchaseId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>factoryId</v>
+      </c>
+      <c r="D1" t="str">
+        <v>productId</v>
+      </c>
+      <c r="E1" t="str">
+        <v>productName</v>
+      </c>
+      <c r="F1" t="str">
+        <v>size</v>
+      </c>
+      <c r="G1" t="str">
+        <v>thickness</v>
+      </c>
+      <c r="H1" t="str">
+        <v>dateReceived</v>
+      </c>
+      <c r="I1" t="str">
+        <v>batchRef</v>
+      </c>
+      <c r="J1" t="str">
+        <v>status</v>
+      </c>
+      <c r="K1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>STK001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D2" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I2" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J2" t="str">
+        <v>available</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>STK002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C3" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D3" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I3" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J3" t="str">
+        <v>used</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Used for ORD001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>STK003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C4" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G4" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I4" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J4" t="str">
+        <v>available</v>
+      </c>
+      <c r="K4" t="str">
+        <v>BWR grade plywood in stock</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>STK004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C5" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D5" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G5" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I5" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J5" t="str">
+        <v>used</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Used for ORD002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>STK005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C6" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D6" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I6" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J6" t="str">
+        <v>available</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Mica sheets for kitchen use</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>STK006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C7" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D7" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I7" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J7" t="str">
+        <v>used</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Used for ORD003</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>STK007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C8" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D8" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I8" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J8" t="str">
+        <v>available</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Industrial grade aluminium</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>STK008</v>
+      </c>
+      <c r="B9" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C9" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D9" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I9" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J9" t="str">
+        <v>used</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Used for ORD004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>STK009</v>
+      </c>
+      <c r="B10" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C10" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D10" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I10" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J10" t="str">
+        <v>available</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Virgin PTFE teflon</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>STK010</v>
+      </c>
+      <c r="B11" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C11" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I11" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J11" t="str">
+        <v>used</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Used for ORD005</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/SheetCuttingBusinessTemplate.xlsx
+++ b/public/SheetCuttingBusinessTemplate.xlsx
@@ -2120,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>STK001</v>
+        <v>STK011</v>
       </c>
       <c r="B2" t="str">
         <v>PUR001</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>STK002</v>
+        <v>STK012</v>
       </c>
       <c r="B3" t="str">
         <v>PUR001</v>
@@ -2224,97 +2224,97 @@
         <v>HYL-2024-001</v>
       </c>
       <c r="J3" t="str">
-        <v>used</v>
+        <v>available</v>
       </c>
       <c r="K3" t="str">
-        <v>Used for ORD001</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>STK003</v>
+        <v>STK013</v>
       </c>
       <c r="B4" t="str">
-        <v>PUR002</v>
+        <v>PUR001</v>
       </c>
       <c r="C4" t="str">
-        <v>FAC002</v>
+        <v>FAC001</v>
       </c>
       <c r="D4" t="str">
-        <v>PROD007</v>
+        <v>PROD009</v>
       </c>
       <c r="E4" t="str">
-        <v>Commercial Plywood</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F4" t="str">
         <v>2440x1220</v>
       </c>
       <c r="G4" t="str">
-        <v>18.0mm</v>
+        <v>1.0mm</v>
       </c>
       <c r="H4" t="str">
-        <v>2024-01-20</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I4" t="str">
-        <v>PLY-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J4" t="str">
         <v>available</v>
       </c>
       <c r="K4" t="str">
-        <v>BWR grade plywood in stock</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>STK004</v>
+        <v>STK014</v>
       </c>
       <c r="B5" t="str">
-        <v>PUR002</v>
+        <v>PUR001</v>
       </c>
       <c r="C5" t="str">
-        <v>FAC002</v>
+        <v>FAC001</v>
       </c>
       <c r="D5" t="str">
-        <v>PROD007</v>
+        <v>PROD009</v>
       </c>
       <c r="E5" t="str">
-        <v>Commercial Plywood</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F5" t="str">
         <v>2440x1220</v>
       </c>
       <c r="G5" t="str">
-        <v>18.0mm</v>
+        <v>1.0mm</v>
       </c>
       <c r="H5" t="str">
-        <v>2024-01-20</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I5" t="str">
-        <v>PLY-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J5" t="str">
-        <v>used</v>
+        <v>available</v>
       </c>
       <c r="K5" t="str">
-        <v>Used for ORD002</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>STK005</v>
+        <v>STK015</v>
       </c>
       <c r="B6" t="str">
-        <v>PUR003</v>
+        <v>PUR001</v>
       </c>
       <c r="C6" t="str">
-        <v>FAC003</v>
+        <v>FAC001</v>
       </c>
       <c r="D6" t="str">
-        <v>PROD011</v>
+        <v>PROD009</v>
       </c>
       <c r="E6" t="str">
-        <v>Standard Mica Sheet</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F6" t="str">
         <v>2440x1220</v>
@@ -2323,33 +2323,33 @@
         <v>1.0mm</v>
       </c>
       <c r="H6" t="str">
-        <v>2024-01-25</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I6" t="str">
-        <v>MIC-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J6" t="str">
         <v>available</v>
       </c>
       <c r="K6" t="str">
-        <v>Mica sheets for kitchen use</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>STK006</v>
+        <v>STK016</v>
       </c>
       <c r="B7" t="str">
-        <v>PUR003</v>
+        <v>PUR001</v>
       </c>
       <c r="C7" t="str">
-        <v>FAC003</v>
+        <v>FAC001</v>
       </c>
       <c r="D7" t="str">
-        <v>PROD011</v>
+        <v>PROD009</v>
       </c>
       <c r="E7" t="str">
-        <v>Standard Mica Sheet</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F7" t="str">
         <v>2440x1220</v>
@@ -2358,161 +2358,7686 @@
         <v>1.0mm</v>
       </c>
       <c r="H7" t="str">
-        <v>2024-01-25</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I7" t="str">
-        <v>MIC-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J7" t="str">
-        <v>used</v>
+        <v>available</v>
       </c>
       <c r="K7" t="str">
-        <v>Used for ORD003</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>STK007</v>
+        <v>STK017</v>
       </c>
       <c r="B8" t="str">
-        <v>PUR004</v>
+        <v>PUR001</v>
       </c>
       <c r="C8" t="str">
-        <v>FAC004</v>
+        <v>FAC001</v>
       </c>
       <c r="D8" t="str">
-        <v>PROD013</v>
+        <v>PROD009</v>
       </c>
       <c r="E8" t="str">
-        <v>Aluminium Sheet 3mm</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F8" t="str">
         <v>2440x1220</v>
       </c>
       <c r="G8" t="str">
-        <v>3.0mm</v>
+        <v>1.0mm</v>
       </c>
       <c r="H8" t="str">
-        <v>2024-02-01</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I8" t="str">
-        <v>ALU-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J8" t="str">
         <v>available</v>
       </c>
       <c r="K8" t="str">
-        <v>Industrial grade aluminium</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>STK008</v>
+        <v>STK018</v>
       </c>
       <c r="B9" t="str">
-        <v>PUR004</v>
+        <v>PUR001</v>
       </c>
       <c r="C9" t="str">
-        <v>FAC004</v>
+        <v>FAC001</v>
       </c>
       <c r="D9" t="str">
-        <v>PROD013</v>
+        <v>PROD009</v>
       </c>
       <c r="E9" t="str">
-        <v>Aluminium Sheet 3mm</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F9" t="str">
         <v>2440x1220</v>
       </c>
       <c r="G9" t="str">
-        <v>3.0mm</v>
+        <v>1.0mm</v>
       </c>
       <c r="H9" t="str">
-        <v>2024-02-01</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I9" t="str">
-        <v>ALU-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J9" t="str">
-        <v>used</v>
+        <v>available</v>
       </c>
       <c r="K9" t="str">
-        <v>Used for ORD004</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>STK009</v>
+        <v>STK019</v>
       </c>
       <c r="B10" t="str">
-        <v>PUR005</v>
+        <v>PUR001</v>
       </c>
       <c r="C10" t="str">
-        <v>FAC005</v>
+        <v>FAC001</v>
       </c>
       <c r="D10" t="str">
-        <v>PROD015</v>
+        <v>PROD009</v>
       </c>
       <c r="E10" t="str">
-        <v>Teflon PTFE Sheet 2mm</v>
+        <v>Hylam Glossy Finish</v>
       </c>
       <c r="F10" t="str">
-        <v>2000x1000</v>
+        <v>2440x1220</v>
       </c>
       <c r="G10" t="str">
-        <v>2.0mm</v>
+        <v>1.0mm</v>
       </c>
       <c r="H10" t="str">
-        <v>2024-02-05</v>
+        <v>2024-01-15</v>
       </c>
       <c r="I10" t="str">
-        <v>TEF-2024-001</v>
+        <v>HYL-2024-001</v>
       </c>
       <c r="J10" t="str">
         <v>available</v>
       </c>
       <c r="K10" t="str">
-        <v>Virgin PTFE teflon</v>
+        <v>Available for orders</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>STK010</v>
+        <v>STK020</v>
       </c>
       <c r="B11" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C11" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D11" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I11" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J11" t="str">
+        <v>available</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>STK021</v>
+      </c>
+      <c r="B12" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C12" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D12" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G12" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I12" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J12" t="str">
+        <v>available</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>STK022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C13" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D13" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I13" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J13" t="str">
+        <v>available</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>STK023</v>
+      </c>
+      <c r="B14" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C14" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D14" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G14" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I14" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J14" t="str">
+        <v>available</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>STK024</v>
+      </c>
+      <c r="B15" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C15" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D15" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I15" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J15" t="str">
+        <v>available</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>STK025</v>
+      </c>
+      <c r="B16" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C16" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D16" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I16" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J16" t="str">
+        <v>available</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>STK026</v>
+      </c>
+      <c r="B17" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C17" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D17" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I17" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J17" t="str">
+        <v>available</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>STK027</v>
+      </c>
+      <c r="B18" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C18" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D18" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G18" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I18" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J18" t="str">
+        <v>available</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>STK028</v>
+      </c>
+      <c r="B19" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C19" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D19" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G19" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I19" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J19" t="str">
+        <v>available</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>STK029</v>
+      </c>
+      <c r="B20" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C20" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D20" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G20" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I20" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J20" t="str">
+        <v>available</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>STK030</v>
+      </c>
+      <c r="B21" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C21" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D21" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I21" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J21" t="str">
+        <v>available</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>STK031</v>
+      </c>
+      <c r="B22" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C22" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D22" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G22" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H22" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I22" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J22" t="str">
+        <v>available</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>STK032</v>
+      </c>
+      <c r="B23" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C23" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D23" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I23" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J23" t="str">
+        <v>available</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>STK033</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C24" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D24" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G24" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H24" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I24" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J24" t="str">
+        <v>available</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>STK034</v>
+      </c>
+      <c r="B25" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C25" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D25" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G25" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I25" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J25" t="str">
+        <v>available</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>STK035</v>
+      </c>
+      <c r="B26" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C26" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D26" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G26" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I26" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J26" t="str">
+        <v>available</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>STK036</v>
+      </c>
+      <c r="B27" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C27" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D27" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G27" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I27" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J27" t="str">
+        <v>available</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>STK037</v>
+      </c>
+      <c r="B28" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C28" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D28" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G28" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I28" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J28" t="str">
+        <v>available</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>STK038</v>
+      </c>
+      <c r="B29" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C29" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D29" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I29" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J29" t="str">
+        <v>available</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>STK039</v>
+      </c>
+      <c r="B30" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C30" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D30" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G30" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I30" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J30" t="str">
+        <v>available</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>STK040</v>
+      </c>
+      <c r="B31" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C31" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D31" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G31" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I31" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J31" t="str">
+        <v>available</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>STK041</v>
+      </c>
+      <c r="B32" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C32" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D32" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I32" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J32" t="str">
+        <v>used</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>STK042</v>
+      </c>
+      <c r="B33" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C33" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D33" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I33" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J33" t="str">
+        <v>used</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>STK043</v>
+      </c>
+      <c r="B34" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C34" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D34" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G34" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I34" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J34" t="str">
+        <v>used</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>STK044</v>
+      </c>
+      <c r="B35" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C35" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D35" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G35" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I35" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J35" t="str">
+        <v>used</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>STK045</v>
+      </c>
+      <c r="B36" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C36" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D36" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I36" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J36" t="str">
+        <v>used</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>STK046</v>
+      </c>
+      <c r="B37" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C37" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D37" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G37" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I37" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J37" t="str">
+        <v>used</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>STK047</v>
+      </c>
+      <c r="B38" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C38" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D38" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G38" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I38" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J38" t="str">
+        <v>used</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>STK048</v>
+      </c>
+      <c r="B39" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C39" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D39" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G39" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H39" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I39" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J39" t="str">
+        <v>used</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>STK049</v>
+      </c>
+      <c r="B40" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C40" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D40" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G40" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H40" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I40" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J40" t="str">
+        <v>used</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>STK050</v>
+      </c>
+      <c r="B41" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C41" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D41" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G41" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H41" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I41" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J41" t="str">
+        <v>used</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>STK051</v>
+      </c>
+      <c r="B42" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C42" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D42" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G42" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I42" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J42" t="str">
+        <v>used</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>STK052</v>
+      </c>
+      <c r="B43" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C43" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D43" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G43" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H43" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I43" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J43" t="str">
+        <v>used</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>STK053</v>
+      </c>
+      <c r="B44" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C44" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D44" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G44" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H44" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I44" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J44" t="str">
+        <v>used</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>STK054</v>
+      </c>
+      <c r="B45" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C45" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D45" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G45" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H45" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I45" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J45" t="str">
+        <v>used</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>STK055</v>
+      </c>
+      <c r="B46" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C46" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D46" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G46" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H46" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I46" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J46" t="str">
+        <v>used</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>STK056</v>
+      </c>
+      <c r="B47" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C47" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D47" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G47" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H47" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I47" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J47" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>STK057</v>
+      </c>
+      <c r="B48" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C48" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D48" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G48" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H48" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I48" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J48" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>STK058</v>
+      </c>
+      <c r="B49" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C49" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D49" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G49" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H49" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I49" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J49" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>STK059</v>
+      </c>
+      <c r="B50" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C50" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D50" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G50" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H50" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I50" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J50" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>STK060</v>
+      </c>
+      <c r="B51" t="str">
+        <v>PUR001</v>
+      </c>
+      <c r="C51" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D51" t="str">
+        <v>PROD009</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Hylam Glossy Finish</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G51" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2024-01-15</v>
+      </c>
+      <c r="I51" t="str">
+        <v>HYL-2024-001</v>
+      </c>
+      <c r="J51" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>STK061</v>
+      </c>
+      <c r="B52" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C52" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D52" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G52" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I52" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J52" t="str">
+        <v>available</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>STK062</v>
+      </c>
+      <c r="B53" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C53" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D53" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G53" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H53" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I53" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J53" t="str">
+        <v>available</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>STK063</v>
+      </c>
+      <c r="B54" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C54" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D54" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G54" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H54" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I54" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J54" t="str">
+        <v>available</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>STK064</v>
+      </c>
+      <c r="B55" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C55" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D55" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G55" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H55" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I55" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J55" t="str">
+        <v>available</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>STK065</v>
+      </c>
+      <c r="B56" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C56" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D56" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G56" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H56" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I56" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J56" t="str">
+        <v>available</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>STK066</v>
+      </c>
+      <c r="B57" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C57" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D57" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G57" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H57" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I57" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J57" t="str">
+        <v>available</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>STK067</v>
+      </c>
+      <c r="B58" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C58" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D58" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G58" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H58" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I58" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J58" t="str">
+        <v>available</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>STK068</v>
+      </c>
+      <c r="B59" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C59" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D59" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F59" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G59" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H59" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I59" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J59" t="str">
+        <v>available</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>STK069</v>
+      </c>
+      <c r="B60" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C60" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D60" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G60" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H60" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I60" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J60" t="str">
+        <v>available</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>STK070</v>
+      </c>
+      <c r="B61" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C61" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D61" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G61" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H61" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I61" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J61" t="str">
+        <v>available</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>STK071</v>
+      </c>
+      <c r="B62" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C62" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D62" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F62" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G62" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H62" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I62" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J62" t="str">
+        <v>available</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>STK072</v>
+      </c>
+      <c r="B63" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C63" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D63" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G63" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H63" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I63" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J63" t="str">
+        <v>available</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>STK073</v>
+      </c>
+      <c r="B64" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C64" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D64" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F64" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G64" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I64" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J64" t="str">
+        <v>available</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>STK074</v>
+      </c>
+      <c r="B65" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C65" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D65" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F65" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G65" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I65" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J65" t="str">
+        <v>available</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>STK075</v>
+      </c>
+      <c r="B66" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C66" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D66" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G66" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H66" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I66" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J66" t="str">
+        <v>available</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>STK076</v>
+      </c>
+      <c r="B67" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C67" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D67" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G67" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H67" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I67" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J67" t="str">
+        <v>available</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>STK077</v>
+      </c>
+      <c r="B68" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C68" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D68" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G68" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H68" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I68" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J68" t="str">
+        <v>available</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>STK078</v>
+      </c>
+      <c r="B69" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C69" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D69" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F69" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G69" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H69" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I69" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J69" t="str">
+        <v>available</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>STK079</v>
+      </c>
+      <c r="B70" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C70" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D70" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F70" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G70" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H70" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I70" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J70" t="str">
+        <v>used</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>STK080</v>
+      </c>
+      <c r="B71" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C71" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D71" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G71" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H71" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I71" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J71" t="str">
+        <v>used</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>STK081</v>
+      </c>
+      <c r="B72" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C72" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D72" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G72" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H72" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I72" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J72" t="str">
+        <v>used</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>STK082</v>
+      </c>
+      <c r="B73" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C73" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D73" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G73" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H73" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I73" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J73" t="str">
+        <v>used</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>STK083</v>
+      </c>
+      <c r="B74" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C74" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D74" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G74" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H74" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I74" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J74" t="str">
+        <v>used</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>STK084</v>
+      </c>
+      <c r="B75" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C75" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D75" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G75" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H75" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I75" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J75" t="str">
+        <v>used</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>STK085</v>
+      </c>
+      <c r="B76" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C76" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D76" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G76" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H76" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I76" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J76" t="str">
+        <v>used</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>STK086</v>
+      </c>
+      <c r="B77" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C77" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D77" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G77" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H77" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I77" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J77" t="str">
+        <v>used</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>STK087</v>
+      </c>
+      <c r="B78" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C78" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D78" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G78" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H78" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I78" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J78" t="str">
+        <v>used</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>STK088</v>
+      </c>
+      <c r="B79" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C79" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D79" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G79" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H79" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I79" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J79" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>STK089</v>
+      </c>
+      <c r="B80" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C80" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D80" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G80" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H80" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I80" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J80" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>STK090</v>
+      </c>
+      <c r="B81" t="str">
+        <v>PUR002</v>
+      </c>
+      <c r="C81" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D81" t="str">
+        <v>PROD007</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Commercial Plywood</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G81" t="str">
+        <v>18.0mm</v>
+      </c>
+      <c r="H81" t="str">
+        <v>2024-01-20</v>
+      </c>
+      <c r="I81" t="str">
+        <v>PLY-2024-001</v>
+      </c>
+      <c r="J81" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>STK091</v>
+      </c>
+      <c r="B82" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C82" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D82" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F82" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G82" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H82" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I82" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J82" t="str">
+        <v>available</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>STK092</v>
+      </c>
+      <c r="B83" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C83" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D83" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F83" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G83" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H83" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I83" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J83" t="str">
+        <v>available</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>STK093</v>
+      </c>
+      <c r="B84" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C84" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D84" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G84" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H84" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I84" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J84" t="str">
+        <v>available</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>STK094</v>
+      </c>
+      <c r="B85" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C85" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D85" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G85" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H85" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I85" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J85" t="str">
+        <v>available</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>STK095</v>
+      </c>
+      <c r="B86" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C86" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D86" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F86" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G86" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H86" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I86" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J86" t="str">
+        <v>available</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>STK096</v>
+      </c>
+      <c r="B87" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C87" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D87" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F87" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G87" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H87" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I87" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J87" t="str">
+        <v>available</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>STK097</v>
+      </c>
+      <c r="B88" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C88" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D88" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G88" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H88" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I88" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J88" t="str">
+        <v>available</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>STK098</v>
+      </c>
+      <c r="B89" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C89" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D89" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G89" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H89" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I89" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J89" t="str">
+        <v>available</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>STK099</v>
+      </c>
+      <c r="B90" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C90" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D90" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G90" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H90" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I90" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J90" t="str">
+        <v>available</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>STK100</v>
+      </c>
+      <c r="B91" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C91" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D91" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G91" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H91" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I91" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J91" t="str">
+        <v>available</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>STK101</v>
+      </c>
+      <c r="B92" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C92" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D92" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G92" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H92" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I92" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J92" t="str">
+        <v>available</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>STK102</v>
+      </c>
+      <c r="B93" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C93" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D93" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G93" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H93" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I93" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J93" t="str">
+        <v>available</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>STK103</v>
+      </c>
+      <c r="B94" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C94" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D94" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G94" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H94" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I94" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J94" t="str">
+        <v>available</v>
+      </c>
+      <c r="K94" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>STK104</v>
+      </c>
+      <c r="B95" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C95" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D95" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G95" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H95" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I95" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J95" t="str">
+        <v>available</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>STK105</v>
+      </c>
+      <c r="B96" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C96" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D96" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F96" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G96" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H96" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I96" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J96" t="str">
+        <v>available</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>STK106</v>
+      </c>
+      <c r="B97" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C97" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D97" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F97" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G97" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H97" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I97" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J97" t="str">
+        <v>available</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>STK107</v>
+      </c>
+      <c r="B98" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C98" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D98" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F98" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G98" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H98" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I98" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J98" t="str">
+        <v>available</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>STK108</v>
+      </c>
+      <c r="B99" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C99" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D99" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F99" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G99" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H99" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I99" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J99" t="str">
+        <v>available</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>STK109</v>
+      </c>
+      <c r="B100" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C100" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D100" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G100" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H100" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I100" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J100" t="str">
+        <v>available</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>STK110</v>
+      </c>
+      <c r="B101" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C101" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D101" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F101" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G101" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H101" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I101" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J101" t="str">
+        <v>available</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>STK111</v>
+      </c>
+      <c r="B102" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C102" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D102" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F102" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G102" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H102" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I102" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J102" t="str">
+        <v>available</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>STK112</v>
+      </c>
+      <c r="B103" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C103" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D103" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F103" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G103" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H103" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I103" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J103" t="str">
+        <v>available</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>STK113</v>
+      </c>
+      <c r="B104" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C104" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D104" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F104" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G104" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H104" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I104" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J104" t="str">
+        <v>available</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>STK114</v>
+      </c>
+      <c r="B105" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C105" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D105" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F105" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G105" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H105" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I105" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J105" t="str">
+        <v>available</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>STK115</v>
+      </c>
+      <c r="B106" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C106" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D106" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F106" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G106" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H106" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I106" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J106" t="str">
+        <v>used</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>STK116</v>
+      </c>
+      <c r="B107" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C107" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D107" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F107" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G107" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H107" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I107" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J107" t="str">
+        <v>used</v>
+      </c>
+      <c r="K107" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>STK117</v>
+      </c>
+      <c r="B108" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C108" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D108" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F108" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G108" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H108" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I108" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J108" t="str">
+        <v>used</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>STK118</v>
+      </c>
+      <c r="B109" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C109" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D109" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F109" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G109" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H109" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I109" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J109" t="str">
+        <v>used</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>STK119</v>
+      </c>
+      <c r="B110" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C110" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D110" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F110" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G110" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H110" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I110" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J110" t="str">
+        <v>used</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>STK120</v>
+      </c>
+      <c r="B111" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C111" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D111" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F111" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G111" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H111" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I111" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J111" t="str">
+        <v>used</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>STK121</v>
+      </c>
+      <c r="B112" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C112" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D112" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F112" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G112" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H112" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I112" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J112" t="str">
+        <v>used</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>STK122</v>
+      </c>
+      <c r="B113" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C113" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D113" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F113" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G113" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H113" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I113" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J113" t="str">
+        <v>used</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>STK123</v>
+      </c>
+      <c r="B114" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C114" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D114" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F114" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G114" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H114" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I114" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J114" t="str">
+        <v>used</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>STK124</v>
+      </c>
+      <c r="B115" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C115" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D115" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F115" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G115" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H115" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I115" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J115" t="str">
+        <v>used</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>STK125</v>
+      </c>
+      <c r="B116" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C116" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D116" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F116" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G116" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H116" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I116" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J116" t="str">
+        <v>used</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>STK126</v>
+      </c>
+      <c r="B117" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C117" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D117" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F117" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G117" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H117" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I117" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J117" t="str">
+        <v>used</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>STK127</v>
+      </c>
+      <c r="B118" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C118" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D118" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F118" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G118" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H118" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I118" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J118" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>STK128</v>
+      </c>
+      <c r="B119" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C119" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D119" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F119" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G119" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H119" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I119" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J119" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>STK129</v>
+      </c>
+      <c r="B120" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C120" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D120" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F120" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G120" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H120" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I120" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J120" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>STK130</v>
+      </c>
+      <c r="B121" t="str">
+        <v>PUR003</v>
+      </c>
+      <c r="C121" t="str">
+        <v>FAC003</v>
+      </c>
+      <c r="D121" t="str">
+        <v>PROD011</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Standard Mica Sheet</v>
+      </c>
+      <c r="F121" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G121" t="str">
+        <v>1.0mm</v>
+      </c>
+      <c r="H121" t="str">
+        <v>2024-01-25</v>
+      </c>
+      <c r="I121" t="str">
+        <v>MIC-2024-001</v>
+      </c>
+      <c r="J121" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>STK131</v>
+      </c>
+      <c r="B122" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C122" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D122" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F122" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G122" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H122" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I122" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J122" t="str">
+        <v>available</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>STK132</v>
+      </c>
+      <c r="B123" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C123" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D123" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F123" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G123" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H123" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I123" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J123" t="str">
+        <v>available</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>STK133</v>
+      </c>
+      <c r="B124" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C124" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D124" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F124" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G124" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H124" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I124" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J124" t="str">
+        <v>available</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>STK134</v>
+      </c>
+      <c r="B125" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C125" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D125" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F125" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G125" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H125" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I125" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J125" t="str">
+        <v>available</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>STK135</v>
+      </c>
+      <c r="B126" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C126" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D126" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F126" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G126" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H126" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I126" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J126" t="str">
+        <v>available</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>STK136</v>
+      </c>
+      <c r="B127" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C127" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D127" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F127" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G127" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H127" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I127" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J127" t="str">
+        <v>available</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>STK137</v>
+      </c>
+      <c r="B128" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C128" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D128" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F128" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G128" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H128" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I128" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J128" t="str">
+        <v>available</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>STK138</v>
+      </c>
+      <c r="B129" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C129" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D129" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F129" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G129" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H129" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I129" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J129" t="str">
+        <v>available</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>STK139</v>
+      </c>
+      <c r="B130" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C130" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D130" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F130" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G130" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H130" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I130" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J130" t="str">
+        <v>available</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>STK140</v>
+      </c>
+      <c r="B131" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C131" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D131" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F131" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G131" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H131" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I131" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J131" t="str">
+        <v>available</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>STK141</v>
+      </c>
+      <c r="B132" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C132" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D132" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F132" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G132" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H132" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I132" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J132" t="str">
+        <v>available</v>
+      </c>
+      <c r="K132" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>STK142</v>
+      </c>
+      <c r="B133" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C133" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D133" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F133" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G133" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H133" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I133" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J133" t="str">
+        <v>available</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>STK143</v>
+      </c>
+      <c r="B134" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C134" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D134" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F134" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G134" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H134" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I134" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J134" t="str">
+        <v>available</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>STK144</v>
+      </c>
+      <c r="B135" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C135" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D135" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F135" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G135" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H135" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I135" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J135" t="str">
+        <v>available</v>
+      </c>
+      <c r="K135" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>STK145</v>
+      </c>
+      <c r="B136" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C136" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D136" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F136" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G136" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H136" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I136" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J136" t="str">
+        <v>available</v>
+      </c>
+      <c r="K136" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>STK146</v>
+      </c>
+      <c r="B137" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C137" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D137" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F137" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G137" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H137" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I137" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J137" t="str">
+        <v>used</v>
+      </c>
+      <c r="K137" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>STK147</v>
+      </c>
+      <c r="B138" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C138" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D138" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F138" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G138" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H138" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I138" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J138" t="str">
+        <v>used</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>STK148</v>
+      </c>
+      <c r="B139" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C139" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D139" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F139" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G139" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H139" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I139" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J139" t="str">
+        <v>used</v>
+      </c>
+      <c r="K139" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>STK149</v>
+      </c>
+      <c r="B140" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C140" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D140" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F140" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G140" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H140" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I140" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J140" t="str">
+        <v>used</v>
+      </c>
+      <c r="K140" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>STK150</v>
+      </c>
+      <c r="B141" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C141" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D141" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F141" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G141" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H141" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I141" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J141" t="str">
+        <v>used</v>
+      </c>
+      <c r="K141" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>STK151</v>
+      </c>
+      <c r="B142" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C142" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D142" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F142" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G142" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H142" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I142" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J142" t="str">
+        <v>used</v>
+      </c>
+      <c r="K142" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>STK152</v>
+      </c>
+      <c r="B143" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C143" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D143" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F143" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G143" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H143" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I143" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J143" t="str">
+        <v>used</v>
+      </c>
+      <c r="K143" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>STK153</v>
+      </c>
+      <c r="B144" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C144" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D144" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F144" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G144" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H144" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I144" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J144" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K144" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>STK154</v>
+      </c>
+      <c r="B145" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C145" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D145" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F145" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G145" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H145" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I145" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J145" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K145" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>STK155</v>
+      </c>
+      <c r="B146" t="str">
+        <v>PUR004</v>
+      </c>
+      <c r="C146" t="str">
+        <v>FAC004</v>
+      </c>
+      <c r="D146" t="str">
+        <v>PROD013</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Aluminium Sheet 3mm</v>
+      </c>
+      <c r="F146" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G146" t="str">
+        <v>3.0mm</v>
+      </c>
+      <c r="H146" t="str">
+        <v>2024-02-01</v>
+      </c>
+      <c r="I146" t="str">
+        <v>ALU-2024-001</v>
+      </c>
+      <c r="J146" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K146" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>STK156</v>
+      </c>
+      <c r="B147" t="str">
         <v>PUR005</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C147" t="str">
         <v>FAC005</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D147" t="str">
         <v>PROD015</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E147" t="str">
         <v>Teflon PTFE Sheet 2mm</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F147" t="str">
         <v>2000x1000</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G147" t="str">
         <v>2.0mm</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H147" t="str">
         <v>2024-02-05</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I147" t="str">
         <v>TEF-2024-001</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J147" t="str">
+        <v>available</v>
+      </c>
+      <c r="K147" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>STK157</v>
+      </c>
+      <c r="B148" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C148" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D148" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F148" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G148" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H148" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I148" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J148" t="str">
+        <v>available</v>
+      </c>
+      <c r="K148" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>STK158</v>
+      </c>
+      <c r="B149" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C149" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D149" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F149" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G149" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H149" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I149" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J149" t="str">
+        <v>available</v>
+      </c>
+      <c r="K149" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>STK159</v>
+      </c>
+      <c r="B150" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C150" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D150" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F150" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G150" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H150" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I150" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J150" t="str">
+        <v>available</v>
+      </c>
+      <c r="K150" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>STK160</v>
+      </c>
+      <c r="B151" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C151" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D151" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F151" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G151" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H151" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I151" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J151" t="str">
+        <v>available</v>
+      </c>
+      <c r="K151" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>STK161</v>
+      </c>
+      <c r="B152" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C152" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D152" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E152" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F152" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G152" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H152" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I152" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J152" t="str">
+        <v>available</v>
+      </c>
+      <c r="K152" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>STK162</v>
+      </c>
+      <c r="B153" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C153" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D153" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F153" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G153" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H153" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I153" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J153" t="str">
+        <v>available</v>
+      </c>
+      <c r="K153" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>STK163</v>
+      </c>
+      <c r="B154" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C154" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D154" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F154" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G154" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H154" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I154" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J154" t="str">
+        <v>available</v>
+      </c>
+      <c r="K154" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>STK164</v>
+      </c>
+      <c r="B155" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C155" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D155" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F155" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G155" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H155" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I155" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J155" t="str">
+        <v>available</v>
+      </c>
+      <c r="K155" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>STK165</v>
+      </c>
+      <c r="B156" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C156" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D156" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F156" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G156" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H156" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I156" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J156" t="str">
+        <v>available</v>
+      </c>
+      <c r="K156" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>STK166</v>
+      </c>
+      <c r="B157" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C157" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D157" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F157" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G157" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H157" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I157" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J157" t="str">
+        <v>available</v>
+      </c>
+      <c r="K157" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>STK167</v>
+      </c>
+      <c r="B158" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C158" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D158" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F158" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G158" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H158" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I158" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J158" t="str">
+        <v>available</v>
+      </c>
+      <c r="K158" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>STK168</v>
+      </c>
+      <c r="B159" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C159" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D159" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F159" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G159" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H159" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I159" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J159" t="str">
         <v>used</v>
       </c>
-      <c r="K11" t="str">
-        <v>Used for ORD005</v>
+      <c r="K159" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>STK169</v>
+      </c>
+      <c r="B160" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C160" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D160" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F160" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G160" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H160" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I160" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J160" t="str">
+        <v>used</v>
+      </c>
+      <c r="K160" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>STK170</v>
+      </c>
+      <c r="B161" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C161" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D161" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F161" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G161" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H161" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I161" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J161" t="str">
+        <v>used</v>
+      </c>
+      <c r="K161" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>STK171</v>
+      </c>
+      <c r="B162" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C162" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D162" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F162" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G162" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H162" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I162" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J162" t="str">
+        <v>used</v>
+      </c>
+      <c r="K162" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>STK172</v>
+      </c>
+      <c r="B163" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C163" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D163" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E163" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F163" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G163" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H163" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I163" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J163" t="str">
+        <v>used</v>
+      </c>
+      <c r="K163" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>STK173</v>
+      </c>
+      <c r="B164" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C164" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D164" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F164" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G164" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H164" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I164" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J164" t="str">
+        <v>used</v>
+      </c>
+      <c r="K164" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>STK174</v>
+      </c>
+      <c r="B165" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C165" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D165" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F165" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G165" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H165" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I165" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J165" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K165" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>STK175</v>
+      </c>
+      <c r="B166" t="str">
+        <v>PUR005</v>
+      </c>
+      <c r="C166" t="str">
+        <v>FAC005</v>
+      </c>
+      <c r="D166" t="str">
+        <v>PROD015</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Teflon PTFE Sheet 2mm</v>
+      </c>
+      <c r="F166" t="str">
+        <v>2000x1000</v>
+      </c>
+      <c r="G166" t="str">
+        <v>2.0mm</v>
+      </c>
+      <c r="H166" t="str">
+        <v>2024-02-05</v>
+      </c>
+      <c r="I166" t="str">
+        <v>TEF-2024-001</v>
+      </c>
+      <c r="J166" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K166" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>STK176</v>
+      </c>
+      <c r="B167" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C167" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D167" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F167" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G167" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H167" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I167" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J167" t="str">
+        <v>available</v>
+      </c>
+      <c r="K167" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>STK177</v>
+      </c>
+      <c r="B168" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C168" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D168" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F168" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G168" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H168" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I168" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J168" t="str">
+        <v>available</v>
+      </c>
+      <c r="K168" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>STK178</v>
+      </c>
+      <c r="B169" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C169" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D169" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F169" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G169" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H169" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I169" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J169" t="str">
+        <v>available</v>
+      </c>
+      <c r="K169" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>STK179</v>
+      </c>
+      <c r="B170" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C170" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D170" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F170" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G170" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H170" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I170" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J170" t="str">
+        <v>available</v>
+      </c>
+      <c r="K170" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>STK180</v>
+      </c>
+      <c r="B171" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C171" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D171" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F171" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G171" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H171" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I171" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J171" t="str">
+        <v>available</v>
+      </c>
+      <c r="K171" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>STK181</v>
+      </c>
+      <c r="B172" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C172" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D172" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F172" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G172" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H172" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I172" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J172" t="str">
+        <v>available</v>
+      </c>
+      <c r="K172" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>STK182</v>
+      </c>
+      <c r="B173" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C173" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D173" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F173" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G173" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H173" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I173" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J173" t="str">
+        <v>available</v>
+      </c>
+      <c r="K173" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>STK183</v>
+      </c>
+      <c r="B174" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C174" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D174" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F174" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G174" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H174" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I174" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J174" t="str">
+        <v>available</v>
+      </c>
+      <c r="K174" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>STK184</v>
+      </c>
+      <c r="B175" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C175" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D175" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F175" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G175" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H175" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I175" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J175" t="str">
+        <v>available</v>
+      </c>
+      <c r="K175" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>STK185</v>
+      </c>
+      <c r="B176" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C176" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D176" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F176" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G176" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H176" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I176" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J176" t="str">
+        <v>available</v>
+      </c>
+      <c r="K176" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>STK186</v>
+      </c>
+      <c r="B177" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C177" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D177" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F177" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G177" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H177" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I177" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J177" t="str">
+        <v>available</v>
+      </c>
+      <c r="K177" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>STK187</v>
+      </c>
+      <c r="B178" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C178" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D178" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F178" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G178" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H178" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I178" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J178" t="str">
+        <v>available</v>
+      </c>
+      <c r="K178" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>STK188</v>
+      </c>
+      <c r="B179" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C179" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D179" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F179" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G179" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H179" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I179" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J179" t="str">
+        <v>available</v>
+      </c>
+      <c r="K179" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>STK189</v>
+      </c>
+      <c r="B180" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C180" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D180" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F180" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G180" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H180" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I180" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J180" t="str">
+        <v>available</v>
+      </c>
+      <c r="K180" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>STK190</v>
+      </c>
+      <c r="B181" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C181" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D181" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F181" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G181" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H181" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I181" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J181" t="str">
+        <v>available</v>
+      </c>
+      <c r="K181" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>STK191</v>
+      </c>
+      <c r="B182" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C182" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D182" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F182" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G182" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H182" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I182" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J182" t="str">
+        <v>available</v>
+      </c>
+      <c r="K182" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>STK192</v>
+      </c>
+      <c r="B183" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C183" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D183" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F183" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G183" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H183" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I183" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J183" t="str">
+        <v>available</v>
+      </c>
+      <c r="K183" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>STK193</v>
+      </c>
+      <c r="B184" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C184" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D184" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F184" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G184" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H184" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I184" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J184" t="str">
+        <v>available</v>
+      </c>
+      <c r="K184" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>STK194</v>
+      </c>
+      <c r="B185" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C185" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D185" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F185" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G185" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H185" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I185" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J185" t="str">
+        <v>available</v>
+      </c>
+      <c r="K185" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>STK195</v>
+      </c>
+      <c r="B186" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C186" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D186" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F186" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G186" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H186" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I186" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J186" t="str">
+        <v>available</v>
+      </c>
+      <c r="K186" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>STK196</v>
+      </c>
+      <c r="B187" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C187" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D187" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F187" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G187" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H187" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I187" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J187" t="str">
+        <v>available</v>
+      </c>
+      <c r="K187" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>STK197</v>
+      </c>
+      <c r="B188" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C188" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D188" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F188" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G188" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H188" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I188" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J188" t="str">
+        <v>used</v>
+      </c>
+      <c r="K188" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>STK198</v>
+      </c>
+      <c r="B189" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C189" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D189" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E189" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F189" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G189" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H189" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I189" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J189" t="str">
+        <v>used</v>
+      </c>
+      <c r="K189" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>STK199</v>
+      </c>
+      <c r="B190" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C190" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D190" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F190" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G190" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H190" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I190" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J190" t="str">
+        <v>used</v>
+      </c>
+      <c r="K190" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>STK200</v>
+      </c>
+      <c r="B191" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C191" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D191" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F191" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G191" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H191" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I191" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J191" t="str">
+        <v>used</v>
+      </c>
+      <c r="K191" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>STK201</v>
+      </c>
+      <c r="B192" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C192" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D192" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E192" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F192" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G192" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H192" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I192" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J192" t="str">
+        <v>used</v>
+      </c>
+      <c r="K192" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>STK202</v>
+      </c>
+      <c r="B193" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C193" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D193" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E193" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F193" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G193" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H193" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I193" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J193" t="str">
+        <v>used</v>
+      </c>
+      <c r="K193" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>STK203</v>
+      </c>
+      <c r="B194" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C194" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D194" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E194" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F194" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G194" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H194" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I194" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J194" t="str">
+        <v>used</v>
+      </c>
+      <c r="K194" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>STK204</v>
+      </c>
+      <c r="B195" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C195" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D195" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F195" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G195" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H195" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I195" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J195" t="str">
+        <v>used</v>
+      </c>
+      <c r="K195" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>STK205</v>
+      </c>
+      <c r="B196" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C196" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D196" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F196" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G196" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H196" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I196" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J196" t="str">
+        <v>used</v>
+      </c>
+      <c r="K196" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>STK206</v>
+      </c>
+      <c r="B197" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C197" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D197" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E197" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F197" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G197" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H197" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I197" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J197" t="str">
+        <v>used</v>
+      </c>
+      <c r="K197" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>STK207</v>
+      </c>
+      <c r="B198" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C198" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D198" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E198" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F198" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G198" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H198" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I198" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J198" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K198" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>STK208</v>
+      </c>
+      <c r="B199" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C199" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D199" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E199" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F199" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G199" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H199" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I199" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J199" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K199" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>STK209</v>
+      </c>
+      <c r="B200" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C200" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D200" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E200" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F200" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G200" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H200" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I200" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J200" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K200" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>STK210</v>
+      </c>
+      <c r="B201" t="str">
+        <v>PUR006</v>
+      </c>
+      <c r="C201" t="str">
+        <v>FAC001</v>
+      </c>
+      <c r="D201" t="str">
+        <v>PROD010</v>
+      </c>
+      <c r="E201" t="str">
+        <v>Hylam Wood Texture</v>
+      </c>
+      <c r="F201" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G201" t="str">
+        <v>0.8mm</v>
+      </c>
+      <c r="H201" t="str">
+        <v>2024-02-10</v>
+      </c>
+      <c r="I201" t="str">
+        <v>HYL-2024-002</v>
+      </c>
+      <c r="J201" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K201" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>STK211</v>
+      </c>
+      <c r="B202" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C202" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D202" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E202" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F202" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G202" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H202" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I202" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J202" t="str">
+        <v>available</v>
+      </c>
+      <c r="K202" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>STK212</v>
+      </c>
+      <c r="B203" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C203" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D203" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F203" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G203" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H203" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I203" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J203" t="str">
+        <v>available</v>
+      </c>
+      <c r="K203" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>STK213</v>
+      </c>
+      <c r="B204" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C204" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D204" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E204" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F204" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G204" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H204" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I204" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J204" t="str">
+        <v>available</v>
+      </c>
+      <c r="K204" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>STK214</v>
+      </c>
+      <c r="B205" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C205" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D205" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E205" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F205" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G205" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H205" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I205" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J205" t="str">
+        <v>available</v>
+      </c>
+      <c r="K205" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>STK215</v>
+      </c>
+      <c r="B206" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C206" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D206" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F206" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G206" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H206" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I206" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J206" t="str">
+        <v>available</v>
+      </c>
+      <c r="K206" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>STK216</v>
+      </c>
+      <c r="B207" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C207" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D207" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F207" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G207" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H207" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I207" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J207" t="str">
+        <v>available</v>
+      </c>
+      <c r="K207" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>STK217</v>
+      </c>
+      <c r="B208" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C208" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D208" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E208" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F208" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G208" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H208" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I208" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J208" t="str">
+        <v>available</v>
+      </c>
+      <c r="K208" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>STK218</v>
+      </c>
+      <c r="B209" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C209" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D209" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F209" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G209" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H209" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I209" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J209" t="str">
+        <v>available</v>
+      </c>
+      <c r="K209" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>STK219</v>
+      </c>
+      <c r="B210" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C210" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D210" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E210" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F210" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G210" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H210" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I210" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J210" t="str">
+        <v>available</v>
+      </c>
+      <c r="K210" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>STK220</v>
+      </c>
+      <c r="B211" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C211" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D211" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E211" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F211" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G211" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H211" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I211" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J211" t="str">
+        <v>available</v>
+      </c>
+      <c r="K211" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>STK221</v>
+      </c>
+      <c r="B212" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C212" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D212" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F212" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G212" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H212" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I212" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J212" t="str">
+        <v>available</v>
+      </c>
+      <c r="K212" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>STK222</v>
+      </c>
+      <c r="B213" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C213" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D213" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F213" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G213" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H213" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I213" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J213" t="str">
+        <v>available</v>
+      </c>
+      <c r="K213" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>STK223</v>
+      </c>
+      <c r="B214" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C214" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D214" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F214" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G214" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H214" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I214" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J214" t="str">
+        <v>available</v>
+      </c>
+      <c r="K214" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>STK224</v>
+      </c>
+      <c r="B215" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C215" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D215" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E215" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F215" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G215" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H215" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I215" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J215" t="str">
+        <v>available</v>
+      </c>
+      <c r="K215" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>STK225</v>
+      </c>
+      <c r="B216" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C216" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D216" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F216" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G216" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H216" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I216" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J216" t="str">
+        <v>available</v>
+      </c>
+      <c r="K216" t="str">
+        <v>Available for orders</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>STK226</v>
+      </c>
+      <c r="B217" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C217" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D217" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E217" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F217" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G217" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H217" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I217" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J217" t="str">
+        <v>used</v>
+      </c>
+      <c r="K217" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>STK227</v>
+      </c>
+      <c r="B218" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C218" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D218" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E218" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F218" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G218" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H218" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I218" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J218" t="str">
+        <v>used</v>
+      </c>
+      <c r="K218" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>STK228</v>
+      </c>
+      <c r="B219" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C219" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D219" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F219" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G219" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H219" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I219" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J219" t="str">
+        <v>used</v>
+      </c>
+      <c r="K219" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>STK229</v>
+      </c>
+      <c r="B220" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C220" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D220" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F220" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G220" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H220" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I220" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J220" t="str">
+        <v>used</v>
+      </c>
+      <c r="K220" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>STK230</v>
+      </c>
+      <c r="B221" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C221" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D221" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E221" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F221" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G221" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H221" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I221" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J221" t="str">
+        <v>used</v>
+      </c>
+      <c r="K221" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>STK231</v>
+      </c>
+      <c r="B222" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C222" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D222" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F222" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G222" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H222" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I222" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J222" t="str">
+        <v>used</v>
+      </c>
+      <c r="K222" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>STK232</v>
+      </c>
+      <c r="B223" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C223" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D223" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E223" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F223" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G223" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H223" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I223" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J223" t="str">
+        <v>used</v>
+      </c>
+      <c r="K223" t="str">
+        <v>Fully used in orders</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>STK233</v>
+      </c>
+      <c r="B224" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C224" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D224" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E224" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F224" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G224" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H224" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I224" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J224" t="str">
+        <v>in-use</v>
+      </c>
+      <c r="K224" t="str">
+        <v>Currently being processed</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>STK234</v>
+      </c>
+      <c r="B225" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C225" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D225" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F225" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G225" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H225" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I225" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J225" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K225" t="str">
+        <v>Leftover piece from previous cuts</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>STK235</v>
+      </c>
+      <c r="B226" t="str">
+        <v>PUR007</v>
+      </c>
+      <c r="C226" t="str">
+        <v>FAC002</v>
+      </c>
+      <c r="D226" t="str">
+        <v>PROD008</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Marine Plywood</v>
+      </c>
+      <c r="F226" t="str">
+        <v>2440x1220</v>
+      </c>
+      <c r="G226" t="str">
+        <v>12.0mm</v>
+      </c>
+      <c r="H226" t="str">
+        <v>2024-02-15</v>
+      </c>
+      <c r="I226" t="str">
+        <v>PLY-2024-002</v>
+      </c>
+      <c r="J226" t="str">
+        <v>leftover</v>
+      </c>
+      <c r="K226" t="str">
+        <v>Leftover piece from previous cuts</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K226"/>
   </ignoredErrors>
 </worksheet>
 </file>